--- a/df_list_20241129.xlsx
+++ b/df_list_20241129.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D56B364-4033-4C4E-AB51-340D62AF5214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18789" windowHeight="7209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="B+pejUhKKy71Wbl3uIlix41CRaKfsCBivQAfKMo5vGE="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="315">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -958,42 +967,65 @@
   </si>
   <si>
     <t>「지천면 기초생활거점조성사업 지역역량강화(S/W) 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>수집일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1001,11 +1033,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1019,43 +1057,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1245,23 +1296,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1333,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1292,10 +1351,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45624</v>
+      </c>
+      <c r="F2" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1309,10 +1371,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45623</v>
+      </c>
+      <c r="F3" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1326,10 +1391,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45625</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1343,10 +1411,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45624</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1360,10 +1431,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45625</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1377,10 +1451,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45624</v>
+      </c>
+      <c r="F7" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1394,10 +1471,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45623</v>
+      </c>
+      <c r="F8" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1411,10 +1491,13 @@
         <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>45623</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1428,10 +1511,13 @@
         <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45625</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1445,10 +1531,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>45623</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1462,10 +1551,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>45625</v>
+      </c>
+      <c r="F12" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1479,10 +1571,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45625</v>
+      </c>
+      <c r="F13" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1496,10 +1591,13 @@
         <v>36</v>
       </c>
       <c r="E14" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>45625</v>
+      </c>
+      <c r="F14" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1513,10 +1611,13 @@
         <v>37</v>
       </c>
       <c r="E15" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45625</v>
+      </c>
+      <c r="F15" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1530,10 +1631,13 @@
         <v>38</v>
       </c>
       <c r="E16" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45625</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1547,10 +1651,13 @@
         <v>39</v>
       </c>
       <c r="E17" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45624</v>
+      </c>
+      <c r="F17" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1564,10 +1671,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45623</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1581,10 +1691,13 @@
         <v>44</v>
       </c>
       <c r="E19" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>45625</v>
+      </c>
+      <c r="F19" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1598,10 +1711,13 @@
         <v>48</v>
       </c>
       <c r="E20" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F20" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1615,10 +1731,13 @@
         <v>52</v>
       </c>
       <c r="E21" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F21" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1632,10 +1751,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1649,10 +1771,13 @@
         <v>17</v>
       </c>
       <c r="E23" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F23" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1666,10 +1791,13 @@
         <v>58</v>
       </c>
       <c r="E24" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F24" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1683,10 +1811,13 @@
         <v>59</v>
       </c>
       <c r="E25" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F25" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1700,10 +1831,13 @@
         <v>61</v>
       </c>
       <c r="E26" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F26" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1717,10 +1851,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F27" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -1734,10 +1871,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -1751,10 +1891,13 @@
         <v>69</v>
       </c>
       <c r="E29" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1768,10 +1911,13 @@
         <v>73</v>
       </c>
       <c r="E30" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -1785,10 +1931,13 @@
         <v>74</v>
       </c>
       <c r="E31" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1802,10 +1951,13 @@
         <v>78</v>
       </c>
       <c r="E32" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -1819,10 +1971,13 @@
         <v>82</v>
       </c>
       <c r="E33" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F33" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
@@ -1836,10 +1991,13 @@
         <v>86</v>
       </c>
       <c r="E34" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F34" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -1853,10 +2011,13 @@
         <v>87</v>
       </c>
       <c r="E35" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F35" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -1870,10 +2031,13 @@
         <v>91</v>
       </c>
       <c r="E36" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F36" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1887,10 +2051,13 @@
         <v>95</v>
       </c>
       <c r="E37" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F37" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -1904,10 +2071,13 @@
         <v>96</v>
       </c>
       <c r="E38" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F38" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>97</v>
       </c>
@@ -1921,10 +2091,13 @@
         <v>100</v>
       </c>
       <c r="E39" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F39" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -1938,10 +2111,13 @@
         <v>101</v>
       </c>
       <c r="E40" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F40" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -1955,10 +2131,13 @@
         <v>102</v>
       </c>
       <c r="E41" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -1972,10 +2151,13 @@
         <v>106</v>
       </c>
       <c r="E42" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F42" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
@@ -1989,10 +2171,13 @@
         <v>110</v>
       </c>
       <c r="E43" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F43" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2006,10 +2191,13 @@
         <v>114</v>
       </c>
       <c r="E44" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F44" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
@@ -2023,10 +2211,13 @@
         <v>115</v>
       </c>
       <c r="E45" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F45" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>116</v>
       </c>
@@ -2040,10 +2231,13 @@
         <v>119</v>
       </c>
       <c r="E46" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F46" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -2057,10 +2251,13 @@
         <v>123</v>
       </c>
       <c r="E47" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -2074,10 +2271,13 @@
         <v>127</v>
       </c>
       <c r="E48" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F48" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -2091,10 +2291,13 @@
         <v>131</v>
       </c>
       <c r="E49" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>132</v>
       </c>
@@ -2108,10 +2311,13 @@
         <v>135</v>
       </c>
       <c r="E50" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>136</v>
       </c>
@@ -2125,10 +2331,13 @@
         <v>139</v>
       </c>
       <c r="E51" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F51" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
@@ -2142,10 +2351,13 @@
         <v>143</v>
       </c>
       <c r="E52" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F52" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -2159,10 +2371,13 @@
         <v>147</v>
       </c>
       <c r="E53" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F53" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -2176,10 +2391,13 @@
         <v>151</v>
       </c>
       <c r="E54" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F54" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
@@ -2193,10 +2411,13 @@
         <v>153</v>
       </c>
       <c r="E55" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F55" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>154</v>
       </c>
@@ -2210,10 +2431,13 @@
         <v>157</v>
       </c>
       <c r="E56" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F56" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>154</v>
       </c>
@@ -2227,10 +2451,13 @@
         <v>159</v>
       </c>
       <c r="E57" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F57" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2244,10 +2471,13 @@
         <v>163</v>
       </c>
       <c r="E58" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F58" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -2261,10 +2491,13 @@
         <v>167</v>
       </c>
       <c r="E59" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F59" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>164</v>
       </c>
@@ -2278,10 +2511,13 @@
         <v>168</v>
       </c>
       <c r="E60" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F60" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>169</v>
       </c>
@@ -2295,10 +2531,13 @@
         <v>172</v>
       </c>
       <c r="E61" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F61" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>173</v>
       </c>
@@ -2312,10 +2551,13 @@
         <v>176</v>
       </c>
       <c r="E62" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F62" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
@@ -2329,10 +2571,13 @@
         <v>180</v>
       </c>
       <c r="E63" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F63" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>181</v>
       </c>
@@ -2346,10 +2591,13 @@
         <v>184</v>
       </c>
       <c r="E64" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F64" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>185</v>
       </c>
@@ -2363,10 +2611,13 @@
         <v>188</v>
       </c>
       <c r="E65" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F65" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>189</v>
       </c>
@@ -2380,10 +2631,13 @@
         <v>192</v>
       </c>
       <c r="E66" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F66" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>189</v>
       </c>
@@ -2397,10 +2651,13 @@
         <v>193</v>
       </c>
       <c r="E67" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F67" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>189</v>
       </c>
@@ -2414,10 +2671,13 @@
         <v>194</v>
       </c>
       <c r="E68" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F68" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -2431,10 +2691,13 @@
         <v>198</v>
       </c>
       <c r="E69" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F69" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
@@ -2448,10 +2711,13 @@
         <v>202</v>
       </c>
       <c r="E70" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F70" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>203</v>
       </c>
@@ -2465,10 +2731,13 @@
         <v>206</v>
       </c>
       <c r="E71" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F71" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>203</v>
       </c>
@@ -2482,10 +2751,13 @@
         <v>207</v>
       </c>
       <c r="E72" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F72" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>208</v>
       </c>
@@ -2499,10 +2771,13 @@
         <v>211</v>
       </c>
       <c r="E73" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F73" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
@@ -2516,10 +2791,13 @@
         <v>215</v>
       </c>
       <c r="E74" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F74" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
@@ -2533,10 +2811,13 @@
         <v>219</v>
       </c>
       <c r="E75" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F75" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>216</v>
       </c>
@@ -2550,10 +2831,13 @@
         <v>220</v>
       </c>
       <c r="E76" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F76" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>221</v>
       </c>
@@ -2567,10 +2851,13 @@
         <v>224</v>
       </c>
       <c r="E77" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F77" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>225</v>
       </c>
@@ -2584,10 +2871,13 @@
         <v>228</v>
       </c>
       <c r="E78" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F78" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>229</v>
       </c>
@@ -2601,10 +2891,13 @@
         <v>232</v>
       </c>
       <c r="E79" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F79" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>229</v>
       </c>
@@ -2618,10 +2911,13 @@
         <v>234</v>
       </c>
       <c r="E80" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F80" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>235</v>
       </c>
@@ -2635,10 +2931,13 @@
         <v>238</v>
       </c>
       <c r="E81" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F81" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>235</v>
       </c>
@@ -2652,10 +2951,13 @@
         <v>240</v>
       </c>
       <c r="E82" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F82" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>241</v>
       </c>
@@ -2669,10 +2971,13 @@
         <v>244</v>
       </c>
       <c r="E83" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F83" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>241</v>
       </c>
@@ -2686,10 +2991,13 @@
         <v>246</v>
       </c>
       <c r="E84" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>247</v>
       </c>
@@ -2703,10 +3011,13 @@
         <v>250</v>
       </c>
       <c r="E85" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F85" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>251</v>
       </c>
@@ -2720,10 +3031,13 @@
         <v>254</v>
       </c>
       <c r="E86" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F86" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>251</v>
       </c>
@@ -2737,10 +3051,13 @@
         <v>256</v>
       </c>
       <c r="E87" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F87" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>251</v>
       </c>
@@ -2754,10 +3071,13 @@
         <v>257</v>
       </c>
       <c r="E88" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F88" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>258</v>
       </c>
@@ -2771,10 +3091,13 @@
         <v>261</v>
       </c>
       <c r="E89" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F89" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>262</v>
       </c>
@@ -2788,10 +3111,13 @@
         <v>265</v>
       </c>
       <c r="E90" s="3">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F90" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>266</v>
       </c>
@@ -2805,10 +3131,13 @@
         <v>269</v>
       </c>
       <c r="E91" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F91" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>270</v>
       </c>
@@ -2822,10 +3151,13 @@
         <v>273</v>
       </c>
       <c r="E92" s="3">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F92" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>274</v>
       </c>
@@ -2839,10 +3171,13 @@
         <v>277</v>
       </c>
       <c r="E93" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F93" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>274</v>
       </c>
@@ -2856,10 +3191,13 @@
         <v>279</v>
       </c>
       <c r="E94" s="3">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F94" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>280</v>
       </c>
@@ -2873,10 +3211,13 @@
         <v>283</v>
       </c>
       <c r="E95" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F95" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
         <v>280</v>
       </c>
@@ -2890,10 +3231,13 @@
         <v>284</v>
       </c>
       <c r="E96" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F96" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>280</v>
       </c>
@@ -2907,10 +3251,13 @@
         <v>285</v>
       </c>
       <c r="E97" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F97" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
         <v>286</v>
       </c>
@@ -2924,10 +3271,13 @@
         <v>289</v>
       </c>
       <c r="E98" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>169</v>
       </c>
@@ -2941,10 +3291,13 @@
         <v>172</v>
       </c>
       <c r="E99" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F99" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
         <v>290</v>
       </c>
@@ -2958,10 +3311,13 @@
         <v>293</v>
       </c>
       <c r="E100" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F100" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>290</v>
       </c>
@@ -2975,10 +3331,13 @@
         <v>294</v>
       </c>
       <c r="E101" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F101" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
         <v>295</v>
       </c>
@@ -2992,10 +3351,13 @@
         <v>298</v>
       </c>
       <c r="E102" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F102" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>299</v>
       </c>
@@ -3009,10 +3371,13 @@
         <v>302</v>
       </c>
       <c r="E103" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F103" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
         <v>299</v>
       </c>
@@ -3026,10 +3391,13 @@
         <v>303</v>
       </c>
       <c r="E104" s="6">
-        <v>45623.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>45623</v>
+      </c>
+      <c r="F104" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>304</v>
       </c>
@@ -3043,10 +3411,13 @@
         <v>307</v>
       </c>
       <c r="E105" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F105" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
         <v>304</v>
       </c>
@@ -3060,10 +3431,13 @@
         <v>308</v>
       </c>
       <c r="E106" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>45625</v>
+      </c>
+      <c r="F106" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>304</v>
       </c>
@@ -3077,10 +3451,13 @@
         <v>309</v>
       </c>
       <c r="E107" s="6">
-        <v>45624.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>45624</v>
+      </c>
+      <c r="F107" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>310</v>
       </c>
@@ -3094,921 +3471,923 @@
         <v>313</v>
       </c>
       <c r="E108" s="6">
-        <v>45625.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>45625</v>
+      </c>
+      <c r="F108" s="8">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C95"/>
-    <hyperlink r:id="rId2" ref="C96"/>
-    <hyperlink r:id="rId3" ref="C97"/>
-    <hyperlink r:id="rId4" ref="C98"/>
-    <hyperlink r:id="rId5" ref="C99"/>
-    <hyperlink r:id="rId6" ref="C100"/>
-    <hyperlink r:id="rId7" ref="C101"/>
-    <hyperlink r:id="rId8" ref="C102"/>
-    <hyperlink r:id="rId9" ref="C103"/>
-    <hyperlink r:id="rId10" ref="C104"/>
-    <hyperlink r:id="rId11" ref="C105"/>
-    <hyperlink r:id="rId12" ref="C106"/>
-    <hyperlink r:id="rId13" ref="C107"/>
-    <hyperlink r:id="rId14" ref="C108"/>
+    <hyperlink ref="C95" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C96" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C97" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C98" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C99" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C100" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C101" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C102" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C103" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C104" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C105" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C106" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C107" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C108" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>